--- a/scorecard/scorecard_indices_mapped_to_tableau_indices.xlsx
+++ b/scorecard/scorecard_indices_mapped_to_tableau_indices.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
   <si>
     <t>Backend Name</t>
   </si>
@@ -25,144 +25,63 @@
     <t>Type</t>
   </si>
   <si>
-    <t>calculated from</t>
-  </si>
-  <si>
     <t>scale</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
-    <t>ADA-PARC Score</t>
-  </si>
-  <si>
-    <t>OV</t>
-  </si>
-  <si>
-    <t>Combined</t>
-  </si>
-  <si>
-    <t>state average of ‘ADA-PARC Work Economic Score’ ‘ADA-PARC Community Participation Score’ ‘ADA-PARC Community Living Score’</t>
+    <t>Work Economic Relative Score</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>Relative</t>
   </si>
   <si>
     <t>0 - 100</t>
   </si>
   <si>
-    <t>State’s average score across all categories (CL, CP, WE) and both dimensions (Relative, Equity)</t>
-  </si>
-  <si>
-    <t>ADA-PARC Work Economic Score</t>
-  </si>
-  <si>
-    <t>WE</t>
-  </si>
-  <si>
-    <t>State average of work economic measures across equity and relative dimension.</t>
-  </si>
-  <si>
-    <t>A state’s average score on the relative dimension and equity dimension within the work economic category</t>
-  </si>
-  <si>
-    <t>ADA-PARC Community Participation Score</t>
+    <t>A state's average relative score across the measures within the work economic category.</t>
+  </si>
+  <si>
+    <t>Community Participation Relative Score</t>
   </si>
   <si>
     <t>CP</t>
   </si>
   <si>
-    <t xml:space="preserve">State average of work economic </t>
-  </si>
-  <si>
-    <t>A state’s average score on the relative dimension and equity dimension within the community participation category.</t>
-  </si>
-  <si>
-    <t>ADA-Parc Community Living Score</t>
+    <t>A state's average relative score across the measures within the community participation category.</t>
+  </si>
+  <si>
+    <t>Community Living Relative Score</t>
   </si>
   <si>
     <t>CL</t>
   </si>
   <si>
-    <t>State average of community living measures across relative and equity dimensions</t>
-  </si>
-  <si>
-    <t>A state’s average score on the relative dimension and equity dimension within the community living category.</t>
-  </si>
-  <si>
-    <t>ADA-PARC Relative Score</t>
-  </si>
-  <si>
-    <t>Relative</t>
-  </si>
-  <si>
-    <t>State average across relative measures in all three categories.</t>
-  </si>
-  <si>
-    <t>A state's average relative score across all three of the community living, community participation, and work economic categories.</t>
-  </si>
-  <si>
-    <t>Work Economic Relative Score</t>
-  </si>
-  <si>
-    <t>State average on relative measures in work economic category.</t>
-  </si>
-  <si>
-    <t>A state's average relative score across the measures within the work economic category.</t>
-  </si>
-  <si>
-    <t>Community Participation Relative Score</t>
-  </si>
-  <si>
-    <t>State average on relative measures in community participation measures</t>
-  </si>
-  <si>
-    <t>A state's average relative score across the measures within the community participation category.</t>
-  </si>
-  <si>
-    <t>Community Living Relative Score</t>
-  </si>
-  <si>
-    <t>State average on relative measures in community living measures.</t>
-  </si>
-  <si>
     <t>A state's average relative score across the measures within the community living category.</t>
   </si>
   <si>
-    <t>ADA-PARC Equity Score</t>
+    <t>Work Economic Equity Score</t>
   </si>
   <si>
     <t>Equity</t>
   </si>
   <si>
-    <t>State average on equity measures across all three categories.</t>
-  </si>
-  <si>
-    <t>A state's average equity score across all three of the community living, community participation, and work economic categories</t>
-  </si>
-  <si>
-    <t>Work Economic Equity Score</t>
-  </si>
-  <si>
-    <t>State average on equity measures within work economic category.</t>
-  </si>
-  <si>
     <t>A state's average equity score across the measures of the work economic category.</t>
   </si>
   <si>
     <t>Community Participation Equity Score</t>
   </si>
   <si>
-    <t>State average on equity measures within community participation category.</t>
-  </si>
-  <si>
     <t>A state's average equity score across the measures of the community participation category.</t>
   </si>
   <si>
     <t>Community Living Equity Score</t>
   </si>
   <si>
-    <t>State average on equity measures within community living category.</t>
-  </si>
-  <si>
     <t>A state's average equity score across the measures of the community living category.</t>
   </si>
   <si>
@@ -172,9 +91,6 @@
     <t>Living in Nursing Home 18-64 Relative Score</t>
   </si>
   <si>
-    <t>pwd_nursing_18_64_pct, z_pwd_nursing_18_64_pct</t>
-  </si>
-  <si>
     <t xml:space="preserve">A state’s relative score on the percentage of disabled individuals aged 18-64 living in a nursing home. </t>
   </si>
   <si>
@@ -184,9 +100,6 @@
     <t>Living in Institutionalized Groupquarters Relative Score</t>
   </si>
   <si>
-    <t>(z_)pwd_grpquarters_institution_pct</t>
-  </si>
-  <si>
     <t xml:space="preserve">A state’s relative score on the percentage of disabled individuals living in an institutionalized group quarters setting. </t>
   </si>
   <si>
@@ -196,9 +109,6 @@
     <t>Living in Non-Institutionalized Groupquarters Relative Score</t>
   </si>
   <si>
-    <t>(z_)pwd_grpquarters_noninstitution_pct</t>
-  </si>
-  <si>
     <t xml:space="preserve">A state’s relative score on the percentage of disabled individuals living in a non-institutionalized group quarters setting. </t>
   </si>
   <si>
@@ -208,9 +118,6 @@
     <t>Living at Home Relative Score</t>
   </si>
   <si>
-    <t>pwd_home_pct, z_pwd_home_pct</t>
-  </si>
-  <si>
     <t>A state’s relative score on the percentage of the disabled population living at home.</t>
   </si>
   <si>
@@ -220,9 +127,6 @@
     <t>Living in Correctional Facilities Relative Score</t>
   </si>
   <si>
-    <t>pwd_corrections_pct_z_pwd_corrections_pct</t>
-  </si>
-  <si>
     <t xml:space="preserve">A state’s relative score on the percentage of the disabled population living in a correctional facility. </t>
   </si>
   <si>
@@ -232,9 +136,6 @@
     <t>Housing Choice Voucher Relative Scor</t>
   </si>
   <si>
-    <t xml:space="preserve">z_pwd_housing_choice_voucher_pct </t>
-  </si>
-  <si>
     <t>A state’s relative score on the percentage of the disabled population accessing housing through vouchers</t>
   </si>
   <si>
@@ -244,9 +145,6 @@
     <t>Living in Public Housing Relative Score</t>
   </si>
   <si>
-    <t>z_pwd_pubhousing_pct</t>
-  </si>
-  <si>
     <t xml:space="preserve">A state’s relative score on the percentage of the disabled population who live in public housing. </t>
   </si>
   <si>
@@ -256,9 +154,6 @@
     <t>Uninsured Age 19-64 Relative Score</t>
   </si>
   <si>
-    <t>z_pwd_19_64_uninsured_pct</t>
-  </si>
-  <si>
     <t xml:space="preserve">A state’s relative score on the percentage of disabled individuals 19-64 who have access to health insurance. </t>
   </si>
   <si>
@@ -277,9 +172,6 @@
     <t>Private Insurance Age 19-64 Relative Score</t>
   </si>
   <si>
-    <t>z_pwd_19_64_insured_private_pct</t>
-  </si>
-  <si>
     <t>A state’s relative score on the percentage of disabled individuals who are covered by private health insurance.</t>
   </si>
   <si>
@@ -289,9 +181,6 @@
     <t>Commute via Public Transportation Relative Score</t>
   </si>
   <si>
-    <t>z_pwd_commute_public_pct</t>
-  </si>
-  <si>
     <t xml:space="preserve">A state’s relative score on the percentage of the disabled population who commute via public transportation. </t>
   </si>
   <si>
@@ -301,9 +190,6 @@
     <t>Commute via Car Alone Relative Score</t>
   </si>
   <si>
-    <t>z_pwd_commute_car_alone_pct</t>
-  </si>
-  <si>
     <t>A state’s relative score on the percentage of the disabled population who commute alone via car.</t>
   </si>
   <si>
@@ -313,9 +199,6 @@
     <t>Less Than High School Educated Relative Score</t>
   </si>
   <si>
-    <t>z_pwd_lessthan_highschool_pct</t>
-  </si>
-  <si>
     <t xml:space="preserve">A state’s relative score on the percentage of the disabled population who are less than high school educated. </t>
   </si>
   <si>
@@ -325,9 +208,6 @@
     <t>High School Educated Relative Score</t>
   </si>
   <si>
-    <t>z_pwd_highschoolequiv_pct</t>
-  </si>
-  <si>
     <t xml:space="preserve">A state’s relative score on the percentage of the disabled population who are high school educated. </t>
   </si>
   <si>
@@ -337,9 +217,6 @@
     <t>Associates Degree Relative Score</t>
   </si>
   <si>
-    <t>z_pwd_degree_ass_pct</t>
-  </si>
-  <si>
     <t>A state’s relative score on the percentage of the disabled population who have achieved an associate’s degree.</t>
   </si>
   <si>
@@ -349,9 +226,6 @@
     <t>Bachelors Degree Relative Score</t>
   </si>
   <si>
-    <t>z_pwd_degree_grtoeq_ba_pct</t>
-  </si>
-  <si>
     <t>A state’s relative score on the percentage of the disabled population who have achieved a bachelors degree.</t>
   </si>
   <si>
@@ -361,9 +235,6 @@
     <t>Computer Access Relative Score</t>
   </si>
   <si>
-    <t>z_pwd_computer_pct</t>
-  </si>
-  <si>
     <t xml:space="preserve">A state’s relative score on the percentage of the disabled population who have access to a computer. </t>
   </si>
   <si>
@@ -373,9 +244,6 @@
     <t>Internet Access Relative Score</t>
   </si>
   <si>
-    <t>z_pwd_int_pct</t>
-  </si>
-  <si>
     <t xml:space="preserve">A state’s relative score on the percentage of the disabled population who have access to the internet. </t>
   </si>
   <si>
@@ -385,9 +253,6 @@
     <t>Smartphone Access Relative Score</t>
   </si>
   <si>
-    <t>z_pwd_smartphone_pct</t>
-  </si>
-  <si>
     <t>A state’s relative score on the percentage of the disabled population who have access to a smartphone.</t>
   </si>
   <si>
@@ -397,9 +262,6 @@
     <t>Below Poverty Relative Score</t>
   </si>
   <si>
-    <t>z_pwd_below_poverty</t>
-  </si>
-  <si>
     <t xml:space="preserve">A state’s relative score on the percentage of the disabled population who are below the poverty line. </t>
   </si>
   <si>
@@ -409,9 +271,6 @@
     <t>Employed Relative Score</t>
   </si>
   <si>
-    <t>z_pwd_employed_pct</t>
-  </si>
-  <si>
     <t xml:space="preserve">A state’s relative score on the percentage of the disabled population who are employed. </t>
   </si>
   <si>
@@ -421,9 +280,6 @@
     <t>Unemployed Relative Score</t>
   </si>
   <si>
-    <t>z_pwd_unemployed_pct</t>
-  </si>
-  <si>
     <t xml:space="preserve">A state’s relative score on the percentage of the disabled population who are unemployed. </t>
   </si>
   <si>
@@ -433,9 +289,6 @@
     <t>Not in Labor Force Relative Score</t>
   </si>
   <si>
-    <t>z_pwd_notlabor_pct</t>
-  </si>
-  <si>
     <t xml:space="preserve">A state’s relative score on the percentage of the disabled population who are not in the labor force. </t>
   </si>
   <si>
@@ -445,9 +298,6 @@
     <t>Median Income Relative Score</t>
   </si>
   <si>
-    <t>z_pwd_groteq_16_med_individual_income</t>
-  </si>
-  <si>
     <t xml:space="preserve">A state’s relative score on the median income of the adult disabled population. </t>
   </si>
   <si>
@@ -457,9 +307,6 @@
     <t>Living in Nursing Home Age 18-64 Equity Score</t>
   </si>
   <si>
-    <t>z_disparity_nursing_18_64_pct</t>
-  </si>
-  <si>
     <t>A state’s equity score for percentage of disabled individuals aged 18-64 living in a nursing home.</t>
   </si>
   <si>
@@ -469,9 +316,6 @@
     <t>Living in Institutionalized Groupquarters Equity Score</t>
   </si>
   <si>
-    <t>z_disparity_grpquarters_institution_pct</t>
-  </si>
-  <si>
     <t>A state’s equity score for percentage of disabled individuals living in institutionalized groupquarters setting.</t>
   </si>
   <si>
@@ -481,9 +325,6 @@
     <t>Living in Non-Institutionalized Groupquarters Equity Score</t>
   </si>
   <si>
-    <t>z_disparity_grpquarters_noninstitution_pct</t>
-  </si>
-  <si>
     <t>A state’s equity score for percentage of disabled individuals living in noninstitutionalzed groupquarters setting.</t>
   </si>
   <si>
@@ -493,9 +334,6 @@
     <t>Living at Home Equity Score</t>
   </si>
   <si>
-    <t>z_disparity_home_pct</t>
-  </si>
-  <si>
     <t xml:space="preserve">A state’s equity score for percentge of disabled individuals living at home. </t>
   </si>
   <si>
@@ -505,9 +343,6 @@
     <t>Living in Correctional Facility Equity Score</t>
   </si>
   <si>
-    <t>z_disparity_corrections_pct</t>
-  </si>
-  <si>
     <t>A state’s equity score for percentage of disabled individuals living in correctional facilities.</t>
   </si>
   <si>
@@ -526,9 +361,6 @@
     <t>Uninsured Age 65+ Equity Score</t>
   </si>
   <si>
-    <t>z_pwd_grtoeq_65_uninsured_pct</t>
-  </si>
-  <si>
     <t>A state’s equity score for percentage of disabled individuals 65 and over without insurance.</t>
   </si>
   <si>
@@ -592,9 +424,6 @@
     <t>Employed Equity Score</t>
   </si>
   <si>
-    <t>z_pwd_employed</t>
-  </si>
-  <si>
     <t>A state’s equity score for the percentage of the adult disabled population employed.</t>
   </si>
   <si>
@@ -604,9 +433,6 @@
     <t>Unemployed Equity Score</t>
   </si>
   <si>
-    <t>z_pwd_unemployed</t>
-  </si>
-  <si>
     <t>A state’s equity score for the percentage of the adult disabled population unemployed.</t>
   </si>
   <si>
@@ -616,9 +442,6 @@
     <t>Not in Labor Force Equity Score</t>
   </si>
   <si>
-    <t>z_pwd_notlabor</t>
-  </si>
-  <si>
     <t>A state’s equity score for the percentage of the disabled population not in the labor force.</t>
   </si>
   <si>
@@ -628,9 +451,6 @@
     <t>Median Individual Income Equity Score</t>
   </si>
   <si>
-    <t>z_pwd_grtoeq_med_individual_income</t>
-  </si>
-  <si>
     <t>A state’s equity score for the median income of the adult disabled population.</t>
   </si>
   <si>
@@ -638,9 +458,6 @@
   </si>
   <si>
     <t>Work Full-time Equity Score</t>
-  </si>
-  <si>
-    <t>z_pwd_fulltime</t>
   </si>
   <si>
     <t>A state’s equity score for the percentage of the adult disabled population working full time.</t>
@@ -653,7 +470,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -665,13 +482,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -686,77 +508,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="11"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -779,7 +547,7 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
@@ -791,7 +559,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
@@ -810,38 +578,26 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -863,8 +619,9 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -881,10 +638,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -1061,11 +818,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1074,33 +834,33 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1339,12 +1099,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1625,7 +1385,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1893,17 +1653,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C2" xSplit="2" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.9688" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="5" width="25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="50.25" customHeight="1">
@@ -1925,1250 +1683,965 @@
       <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" ht="50.25" customHeight="1">
       <c r="A2" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="D2" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="50.25" customHeight="1">
+      <c r="A3" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="50.25" customHeight="1">
+      <c r="A4" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="50.25" customHeight="1">
+      <c r="A5" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="D5" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="50.25" customHeight="1">
+      <c r="A6" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="50.25" customHeight="1">
+      <c r="A7" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" ht="50.25" customHeight="1">
+      <c r="A8" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s" s="6">
+      <c r="E8" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" ht="50.25" customHeight="1">
+      <c r="A9" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" ht="50.25" customHeight="1">
+      <c r="A10" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" ht="50.25" customHeight="1">
+      <c r="A11" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s" s="4">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" ht="50.25" customHeight="1">
+      <c r="A12" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" ht="50.25" customHeight="1">
+      <c r="A13" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" ht="50.25" customHeight="1">
+      <c r="A14" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" ht="50.25" customHeight="1">
+      <c r="A15" t="s" s="3">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" ht="50.25" customHeight="1">
-      <c r="A3" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s" s="10">
+      <c r="D15" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" ht="50.25" customHeight="1">
+      <c r="A16" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s" s="4">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" ht="50.25" customHeight="1">
+      <c r="A17" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" ht="50.25" customHeight="1">
+      <c r="A18" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s" s="4">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" ht="50.25" customHeight="1">
+      <c r="A19" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s" s="4">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" ht="50.25" customHeight="1">
+      <c r="A20" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s" s="4">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" ht="50.25" customHeight="1">
+      <c r="A21" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" ht="50.25" customHeight="1">
+      <c r="A22" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s" s="4">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" ht="50.25" customHeight="1">
+      <c r="A23" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s" s="4">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" ht="50.25" customHeight="1">
+      <c r="A24" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s" s="4">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" ht="50.25" customHeight="1">
+      <c r="A25" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s" s="4">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" ht="50.25" customHeight="1">
+      <c r="A26" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s" s="4">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" ht="50.25" customHeight="1">
+      <c r="A27" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" ht="50.25" customHeight="1">
+      <c r="A28" t="s" s="3">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s" s="4">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" ht="50.25" customHeight="1">
+      <c r="A29" t="s" s="3">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s" s="4">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" ht="50.25" customHeight="1">
+      <c r="A30" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="B30" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" ht="50.25" customHeight="1">
+      <c r="A31" t="s" s="3">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s" s="4">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" ht="50.25" customHeight="1">
+      <c r="A32" t="s" s="3">
+        <v>96</v>
+      </c>
+      <c r="B32" t="s" s="4">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="F3" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" ht="50.25" customHeight="1">
-      <c r="A4" t="s" s="7">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s" s="9">
+      <c r="D32" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D4" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" ht="50.25" customHeight="1">
-      <c r="A5" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s" s="10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" ht="50.25" customHeight="1">
-      <c r="A6" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s" s="10">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" ht="50.25" customHeight="1">
-      <c r="A7" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s" s="10">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" ht="50.25" customHeight="1">
-      <c r="A8" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s" s="9">
+      <c r="E32" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" ht="50.25" customHeight="1">
+      <c r="A33" t="s" s="3">
+        <v>99</v>
+      </c>
+      <c r="B33" t="s" s="4">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D8" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s" s="10">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" ht="50.25" customHeight="1">
-      <c r="A9" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s" s="10">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" ht="50.25" customHeight="1">
-      <c r="A10" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s" s="10">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" ht="50.25" customHeight="1">
-      <c r="A11" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s" s="10">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" ht="50.25" customHeight="1">
-      <c r="A12" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s" s="8">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s" s="9">
+      <c r="E33" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s" s="6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" ht="50.25" customHeight="1">
+      <c r="A34" t="s" s="3">
+        <v>102</v>
+      </c>
+      <c r="B34" t="s" s="4">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s" s="10">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" ht="50.25" customHeight="1">
-      <c r="A13" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="B13" t="s" s="8">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="F13" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s" s="10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" ht="50.25" customHeight="1">
-      <c r="A14" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s" s="8">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s" s="10">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" ht="50.25" customHeight="1">
-      <c r="A15" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s" s="8">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s" s="10">
-        <v>57</v>
-      </c>
-      <c r="F15" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s" s="10">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" ht="50.25" customHeight="1">
-      <c r="A16" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="B16" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s" s="10">
-        <v>61</v>
-      </c>
-      <c r="F16" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s" s="10">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" ht="50.25" customHeight="1">
-      <c r="A17" t="s" s="7">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s" s="8">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s" s="10">
-        <v>65</v>
-      </c>
-      <c r="F17" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s" s="10">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" ht="50.25" customHeight="1">
-      <c r="A18" t="s" s="7">
-        <v>67</v>
-      </c>
-      <c r="B18" t="s" s="8">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E18" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="F18" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s" s="10">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" ht="50.25" customHeight="1">
-      <c r="A19" t="s" s="7">
-        <v>71</v>
-      </c>
-      <c r="B19" t="s" s="8">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s" s="10">
-        <v>73</v>
-      </c>
-      <c r="F19" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s" s="10">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" ht="50.25" customHeight="1">
-      <c r="A20" t="s" s="7">
-        <v>75</v>
-      </c>
-      <c r="B20" t="s" s="8">
-        <v>76</v>
-      </c>
-      <c r="C20" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s" s="10">
-        <v>77</v>
-      </c>
-      <c r="F20" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s" s="10">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" ht="50.25" customHeight="1">
-      <c r="A21" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="B21" t="s" s="8">
-        <v>80</v>
-      </c>
-      <c r="C21" t="s" s="9">
+      <c r="E34" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s" s="6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" ht="50.25" customHeight="1">
+      <c r="A35" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s" s="4">
+        <v>106</v>
+      </c>
+      <c r="C35" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s" s="10">
-        <v>81</v>
-      </c>
-      <c r="F21" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s" s="10">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" ht="50.25" customHeight="1">
-      <c r="A22" t="s" s="7">
-        <v>83</v>
-      </c>
-      <c r="B22" t="s" s="8">
-        <v>84</v>
-      </c>
-      <c r="C22" t="s" s="9">
+      <c r="E35" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s" s="6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" ht="50.25" customHeight="1">
+      <c r="A36" t="s" s="3">
+        <v>108</v>
+      </c>
+      <c r="B36" t="s" s="4">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E22" t="s" s="10">
-        <v>81</v>
-      </c>
-      <c r="F22" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s" s="10">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" ht="50.25" customHeight="1">
-      <c r="A23" t="s" s="7">
-        <v>86</v>
-      </c>
-      <c r="B23" t="s" s="8">
-        <v>87</v>
-      </c>
-      <c r="C23" t="s" s="9">
+      <c r="E36" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" ht="50.25" customHeight="1">
+      <c r="A37" t="s" s="3">
+        <v>111</v>
+      </c>
+      <c r="B37" t="s" s="4">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E23" t="s" s="10">
-        <v>88</v>
-      </c>
-      <c r="F23" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s" s="10">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" ht="50.25" customHeight="1">
-      <c r="A24" t="s" s="7">
-        <v>90</v>
-      </c>
-      <c r="B24" t="s" s="8">
-        <v>91</v>
-      </c>
-      <c r="C24" t="s" s="9">
+      <c r="E37" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s" s="6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" ht="50.25" customHeight="1">
+      <c r="A38" t="s" s="3">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C38" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E24" t="s" s="10">
-        <v>92</v>
-      </c>
-      <c r="F24" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s" s="10">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" ht="50.25" customHeight="1">
-      <c r="A25" t="s" s="7">
-        <v>94</v>
-      </c>
-      <c r="B25" t="s" s="8">
-        <v>95</v>
-      </c>
-      <c r="C25" t="s" s="9">
+      <c r="E38" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s" s="6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" ht="50.25" customHeight="1">
+      <c r="A39" t="s" s="3">
+        <v>117</v>
+      </c>
+      <c r="B39" t="s" s="4">
+        <v>118</v>
+      </c>
+      <c r="C39" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E25" t="s" s="10">
-        <v>96</v>
-      </c>
-      <c r="F25" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s" s="10">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" ht="50.25" customHeight="1">
-      <c r="A26" t="s" s="7">
-        <v>98</v>
-      </c>
-      <c r="B26" t="s" s="8">
-        <v>99</v>
-      </c>
-      <c r="C26" t="s" s="9">
+      <c r="E39" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s" s="6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" ht="50.25" customHeight="1">
+      <c r="A40" t="s" s="3">
+        <v>120</v>
+      </c>
+      <c r="B40" t="s" s="4">
+        <v>121</v>
+      </c>
+      <c r="C40" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s" s="10">
-        <v>100</v>
-      </c>
-      <c r="F26" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s" s="10">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" ht="50.25" customHeight="1">
-      <c r="A27" t="s" s="7">
-        <v>102</v>
-      </c>
-      <c r="B27" t="s" s="8">
-        <v>103</v>
-      </c>
-      <c r="C27" t="s" s="9">
+      <c r="E40" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s" s="6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" ht="50.25" customHeight="1">
+      <c r="A41" t="s" s="3">
+        <v>123</v>
+      </c>
+      <c r="B41" t="s" s="4">
+        <v>124</v>
+      </c>
+      <c r="C41" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E27" t="s" s="10">
-        <v>104</v>
-      </c>
-      <c r="F27" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s" s="10">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" ht="50.25" customHeight="1">
-      <c r="A28" t="s" s="7">
-        <v>106</v>
-      </c>
-      <c r="B28" t="s" s="8">
-        <v>107</v>
-      </c>
-      <c r="C28" t="s" s="9">
+      <c r="E41" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" ht="50.25" customHeight="1">
+      <c r="A42" t="s" s="3">
+        <v>126</v>
+      </c>
+      <c r="B42" t="s" s="4">
+        <v>127</v>
+      </c>
+      <c r="C42" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E28" t="s" s="10">
-        <v>108</v>
-      </c>
-      <c r="F28" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s" s="10">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" ht="50.25" customHeight="1">
-      <c r="A29" t="s" s="7">
-        <v>110</v>
-      </c>
-      <c r="B29" t="s" s="8">
-        <v>111</v>
-      </c>
-      <c r="C29" t="s" s="9">
+      <c r="E42" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s" s="6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" ht="50.25" customHeight="1">
+      <c r="A43" t="s" s="3">
+        <v>129</v>
+      </c>
+      <c r="B43" t="s" s="4">
+        <v>130</v>
+      </c>
+      <c r="C43" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E29" t="s" s="10">
-        <v>112</v>
-      </c>
-      <c r="F29" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s" s="10">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" ht="50.25" customHeight="1">
-      <c r="A30" t="s" s="7">
-        <v>114</v>
-      </c>
-      <c r="B30" t="s" s="8">
-        <v>115</v>
-      </c>
-      <c r="C30" t="s" s="9">
+      <c r="E43" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s" s="6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" ht="50.25" customHeight="1">
+      <c r="A44" t="s" s="3">
+        <v>132</v>
+      </c>
+      <c r="B44" t="s" s="4">
+        <v>133</v>
+      </c>
+      <c r="C44" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E30" t="s" s="10">
-        <v>116</v>
-      </c>
-      <c r="F30" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s" s="10">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" ht="50.25" customHeight="1">
-      <c r="A31" t="s" s="7">
-        <v>118</v>
-      </c>
-      <c r="B31" t="s" s="8">
-        <v>119</v>
-      </c>
-      <c r="C31" t="s" s="9">
+      <c r="E44" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s" s="6">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" ht="50.25" customHeight="1">
+      <c r="A45" t="s" s="3">
+        <v>135</v>
+      </c>
+      <c r="B45" t="s" s="4">
+        <v>136</v>
+      </c>
+      <c r="C45" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E31" t="s" s="10">
-        <v>120</v>
-      </c>
-      <c r="F31" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s" s="10">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" ht="50.25" customHeight="1">
-      <c r="A32" t="s" s="7">
-        <v>122</v>
-      </c>
-      <c r="B32" t="s" s="8">
-        <v>123</v>
-      </c>
-      <c r="C32" t="s" s="9">
+      <c r="E45" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s" s="6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" ht="50.25" customHeight="1">
+      <c r="A46" t="s" s="3">
+        <v>138</v>
+      </c>
+      <c r="B46" t="s" s="4">
+        <v>139</v>
+      </c>
+      <c r="C46" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E32" t="s" s="10">
-        <v>124</v>
-      </c>
-      <c r="F32" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s" s="10">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" ht="50.25" customHeight="1">
-      <c r="A33" t="s" s="7">
-        <v>126</v>
-      </c>
-      <c r="B33" t="s" s="8">
-        <v>127</v>
-      </c>
-      <c r="C33" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E33" t="s" s="10">
-        <v>128</v>
-      </c>
-      <c r="F33" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s" s="10">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" ht="50.25" customHeight="1">
-      <c r="A34" t="s" s="7">
-        <v>130</v>
-      </c>
-      <c r="B34" t="s" s="8">
-        <v>131</v>
-      </c>
-      <c r="C34" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E34" t="s" s="10">
-        <v>132</v>
-      </c>
-      <c r="F34" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s" s="10">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" ht="50.25" customHeight="1">
-      <c r="A35" t="s" s="7">
-        <v>134</v>
-      </c>
-      <c r="B35" t="s" s="8">
-        <v>135</v>
-      </c>
-      <c r="C35" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="D35" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E35" t="s" s="10">
-        <v>136</v>
-      </c>
-      <c r="F35" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s" s="10">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" ht="50.25" customHeight="1">
-      <c r="A36" t="s" s="7">
-        <v>138</v>
-      </c>
-      <c r="B36" t="s" s="8">
-        <v>139</v>
-      </c>
-      <c r="C36" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="D36" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E36" t="s" s="10">
+      <c r="E46" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s" s="6">
         <v>140</v>
       </c>
-      <c r="F36" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s" s="10">
+    </row>
+    <row r="47" ht="50.25" customHeight="1">
+      <c r="A47" t="s" s="3">
         <v>141</v>
       </c>
-    </row>
-    <row r="37" ht="50.25" customHeight="1">
-      <c r="A37" t="s" s="7">
+      <c r="B47" t="s" s="4">
         <v>142</v>
       </c>
-      <c r="B37" t="s" s="8">
+      <c r="C47" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s" s="6">
         <v>143</v>
       </c>
-      <c r="C37" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="D37" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E37" t="s" s="10">
+    </row>
+    <row r="48" ht="50.25" customHeight="1">
+      <c r="A48" t="s" s="3">
         <v>144</v>
       </c>
-      <c r="F37" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s" s="10">
+      <c r="B48" t="s" s="4">
         <v>145</v>
       </c>
-    </row>
-    <row r="38" ht="50.25" customHeight="1">
-      <c r="A38" t="s" s="7">
+      <c r="C48" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s" s="6">
         <v>146</v>
       </c>
-      <c r="B38" t="s" s="8">
+    </row>
+    <row r="49" ht="50.25" customHeight="1">
+      <c r="A49" t="s" s="3">
         <v>147</v>
       </c>
-      <c r="C38" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="D38" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s" s="10">
+      <c r="B49" t="s" s="4">
         <v>148</v>
       </c>
-      <c r="F38" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s" s="10">
+      <c r="C49" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s" s="6">
         <v>149</v>
-      </c>
-    </row>
-    <row r="39" ht="50.25" customHeight="1">
-      <c r="A39" t="s" s="7">
-        <v>150</v>
-      </c>
-      <c r="B39" t="s" s="8">
-        <v>151</v>
-      </c>
-      <c r="C39" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="D39" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E39" t="s" s="10">
-        <v>152</v>
-      </c>
-      <c r="F39" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s" s="10">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" ht="50.25" customHeight="1">
-      <c r="A40" t="s" s="7">
-        <v>154</v>
-      </c>
-      <c r="B40" t="s" s="8">
-        <v>155</v>
-      </c>
-      <c r="C40" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="D40" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E40" t="s" s="10">
-        <v>156</v>
-      </c>
-      <c r="F40" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s" s="10">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="41" ht="50.25" customHeight="1">
-      <c r="A41" t="s" s="7">
-        <v>158</v>
-      </c>
-      <c r="B41" t="s" s="8">
-        <v>159</v>
-      </c>
-      <c r="C41" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="D41" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E41" t="s" s="10">
-        <v>160</v>
-      </c>
-      <c r="F41" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s" s="10">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" ht="50.25" customHeight="1">
-      <c r="A42" t="s" s="7">
-        <v>162</v>
-      </c>
-      <c r="B42" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="C42" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="D42" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E42" t="s" s="10">
-        <v>164</v>
-      </c>
-      <c r="F42" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s" s="10">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" ht="50.25" customHeight="1">
-      <c r="A43" t="s" s="7">
-        <v>166</v>
-      </c>
-      <c r="B43" t="s" s="8">
-        <v>167</v>
-      </c>
-      <c r="C43" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="D43" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E43" t="s" s="10">
-        <v>81</v>
-      </c>
-      <c r="F43" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s" s="10">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" ht="50.25" customHeight="1">
-      <c r="A44" t="s" s="7">
-        <v>169</v>
-      </c>
-      <c r="B44" t="s" s="8">
-        <v>170</v>
-      </c>
-      <c r="C44" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="D44" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E44" t="s" s="10">
-        <v>171</v>
-      </c>
-      <c r="F44" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s" s="10">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" ht="50.25" customHeight="1">
-      <c r="A45" t="s" s="7">
-        <v>173</v>
-      </c>
-      <c r="B45" t="s" s="8">
-        <v>174</v>
-      </c>
-      <c r="C45" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="D45" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E45" t="s" s="10">
-        <v>100</v>
-      </c>
-      <c r="F45" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s" s="10">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="46" ht="50.25" customHeight="1">
-      <c r="A46" t="s" s="7">
-        <v>176</v>
-      </c>
-      <c r="B46" t="s" s="8">
-        <v>177</v>
-      </c>
-      <c r="C46" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="D46" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E46" t="s" s="10">
-        <v>112</v>
-      </c>
-      <c r="F46" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s" s="10">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="47" ht="50.25" customHeight="1">
-      <c r="A47" t="s" s="7">
-        <v>179</v>
-      </c>
-      <c r="B47" t="s" s="8">
-        <v>180</v>
-      </c>
-      <c r="C47" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="D47" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E47" t="s" s="10">
-        <v>116</v>
-      </c>
-      <c r="F47" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s" s="10">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" ht="50.25" customHeight="1">
-      <c r="A48" t="s" s="7">
-        <v>182</v>
-      </c>
-      <c r="B48" t="s" s="8">
-        <v>183</v>
-      </c>
-      <c r="C48" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="D48" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E48" t="s" s="10">
-        <v>120</v>
-      </c>
-      <c r="F48" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s" s="10">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" ht="50.25" customHeight="1">
-      <c r="A49" t="s" s="7">
-        <v>185</v>
-      </c>
-      <c r="B49" t="s" s="8">
-        <v>186</v>
-      </c>
-      <c r="C49" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="D49" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E49" t="s" s="10">
-        <v>124</v>
-      </c>
-      <c r="F49" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s" s="10">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" ht="50.25" customHeight="1">
-      <c r="A50" t="s" s="7">
-        <v>188</v>
-      </c>
-      <c r="B50" t="s" s="8">
-        <v>189</v>
-      </c>
-      <c r="C50" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="D50" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E50" t="s" s="10">
-        <v>128</v>
-      </c>
-      <c r="F50" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s" s="10">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" ht="50.25" customHeight="1">
-      <c r="A51" t="s" s="7">
-        <v>191</v>
-      </c>
-      <c r="B51" t="s" s="8">
-        <v>192</v>
-      </c>
-      <c r="C51" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="D51" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E51" t="s" s="10">
-        <v>193</v>
-      </c>
-      <c r="F51" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s" s="10">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="52" ht="50.25" customHeight="1">
-      <c r="A52" t="s" s="7">
-        <v>195</v>
-      </c>
-      <c r="B52" t="s" s="8">
-        <v>196</v>
-      </c>
-      <c r="C52" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="D52" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E52" t="s" s="10">
-        <v>197</v>
-      </c>
-      <c r="F52" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s" s="10">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="53" ht="50.25" customHeight="1">
-      <c r="A53" t="s" s="7">
-        <v>199</v>
-      </c>
-      <c r="B53" t="s" s="8">
-        <v>200</v>
-      </c>
-      <c r="C53" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="D53" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E53" t="s" s="10">
-        <v>201</v>
-      </c>
-      <c r="F53" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s" s="10">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="54" ht="50.25" customHeight="1">
-      <c r="A54" t="s" s="7">
-        <v>203</v>
-      </c>
-      <c r="B54" t="s" s="8">
-        <v>204</v>
-      </c>
-      <c r="C54" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="D54" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E54" t="s" s="10">
-        <v>205</v>
-      </c>
-      <c r="F54" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s" s="10">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="55" ht="50.25" customHeight="1">
-      <c r="A55" t="s" s="7">
-        <v>207</v>
-      </c>
-      <c r="B55" t="s" s="8">
-        <v>208</v>
-      </c>
-      <c r="C55" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="D55" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E55" t="s" s="10">
-        <v>209</v>
-      </c>
-      <c r="F55" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s" s="10">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
